--- a/day2/Task 4/dynamic-chart.xlsx
+++ b/day2/Task 4/dynamic-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Andrii\Documents\Data Analyst - Andrew Bootcamp\da-bootcamp-2025\da-bootcamp-2025\day2\Task 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FE7B0A-F405-47AE-AE01-A5512CDC7E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35BD55C-4E1B-4572-BD84-B0976A413515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
